--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angpt4-Tek.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angpt4-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.916060131355969</v>
+        <v>1.027368666666667</v>
       </c>
       <c r="H2">
-        <v>0.916060131355969</v>
+        <v>3.082106</v>
       </c>
       <c r="I2">
-        <v>0.7416952639165965</v>
+        <v>0.7595351715900243</v>
       </c>
       <c r="J2">
-        <v>0.7416952639165965</v>
+        <v>0.8257207729145039</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>70.2356578691205</v>
+        <v>70.2375145</v>
       </c>
       <c r="N2">
-        <v>70.2356578691205</v>
+        <v>140.475029</v>
       </c>
       <c r="O2">
-        <v>0.5972432053378556</v>
+        <v>0.5875234044920492</v>
       </c>
       <c r="P2">
-        <v>0.5972432053378556</v>
+        <v>0.4906443493732269</v>
       </c>
       <c r="Q2">
-        <v>64.34008597345942</v>
+        <v>72.15982162184567</v>
       </c>
       <c r="R2">
-        <v>64.34008597345942</v>
+        <v>432.958929731074</v>
       </c>
       <c r="S2">
-        <v>0.4429724568054548</v>
+        <v>0.4462446898440238</v>
       </c>
       <c r="T2">
-        <v>0.4429724568054548</v>
+        <v>0.4051352313905948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.916060131355969</v>
+        <v>1.027368666666667</v>
       </c>
       <c r="H3">
-        <v>0.916060131355969</v>
+        <v>3.082106</v>
       </c>
       <c r="I3">
-        <v>0.7416952639165965</v>
+        <v>0.7595351715900243</v>
       </c>
       <c r="J3">
-        <v>0.7416952639165965</v>
+        <v>0.8257207729145039</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.61267534780753</v>
+        <v>2.804800666666666</v>
       </c>
       <c r="N3">
-        <v>2.61267534780753</v>
+        <v>8.414401999999999</v>
       </c>
       <c r="O3">
-        <v>0.0222166723651891</v>
+        <v>0.02346162230159168</v>
       </c>
       <c r="P3">
-        <v>0.0222166723651891</v>
+        <v>0.02938941407625393</v>
       </c>
       <c r="Q3">
-        <v>2.393367722303068</v>
+        <v>2.881564321179111</v>
       </c>
       <c r="R3">
-        <v>2.393367722303068</v>
+        <v>25.93407889061199</v>
       </c>
       <c r="S3">
-        <v>0.01647800067324749</v>
+        <v>0.01781992732061978</v>
       </c>
       <c r="T3">
-        <v>0.01647800067324749</v>
+        <v>0.0242674497065488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.916060131355969</v>
+        <v>1.027368666666667</v>
       </c>
       <c r="H4">
-        <v>0.916060131355969</v>
+        <v>3.082106</v>
       </c>
       <c r="I4">
-        <v>0.7416952639165965</v>
+        <v>0.7595351715900243</v>
       </c>
       <c r="J4">
-        <v>0.7416952639165965</v>
+        <v>0.8257207729145039</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>43.2917111739136</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N4">
-        <v>43.2917111739136</v>
+        <v>0.318823</v>
       </c>
       <c r="O4">
-        <v>0.3681275456157778</v>
+        <v>0.0008889645166775211</v>
       </c>
       <c r="P4">
-        <v>0.3681275456157778</v>
+        <v>0.001113569468636453</v>
       </c>
       <c r="Q4">
-        <v>39.65781062459996</v>
+        <v>0.1091829201375556</v>
       </c>
       <c r="R4">
-        <v>39.65781062459996</v>
+        <v>0.9826462812379999</v>
       </c>
       <c r="S4">
-        <v>0.2730384571004632</v>
+        <v>0.000675199816712104</v>
       </c>
       <c r="T4">
-        <v>0.2730384571004632</v>
+        <v>0.0009194974423364854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +717,60 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.916060131355969</v>
+        <v>1.027368666666667</v>
       </c>
       <c r="H5">
-        <v>0.916060131355969</v>
+        <v>3.082106</v>
       </c>
       <c r="I5">
-        <v>0.7416952639165965</v>
+        <v>0.7595351715900243</v>
       </c>
       <c r="J5">
-        <v>0.7416952639165965</v>
+        <v>0.8257207729145039</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45971604408666</v>
+        <v>44.29925666666667</v>
       </c>
       <c r="N5">
-        <v>1.45971604408666</v>
+        <v>132.89777</v>
       </c>
       <c r="O5">
-        <v>0.01241257668117757</v>
+        <v>0.3705548278372964</v>
       </c>
       <c r="P5">
-        <v>0.01241257668117757</v>
+        <v>0.4641788676534301</v>
       </c>
       <c r="Q5">
-        <v>1.337187671088441</v>
+        <v>45.51166825595778</v>
       </c>
       <c r="R5">
-        <v>1.337187671088441</v>
+        <v>409.60501430362</v>
       </c>
       <c r="S5">
-        <v>0.009206349337430992</v>
+        <v>0.2814494247449129</v>
       </c>
       <c r="T5">
-        <v>0.009206349337430992</v>
+        <v>0.3832821333693695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -776,55 +779,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.319029501707914</v>
+        <v>1.027368666666667</v>
       </c>
       <c r="H6">
-        <v>0.319029501707914</v>
+        <v>3.082106</v>
       </c>
       <c r="I6">
-        <v>0.2583047360834035</v>
+        <v>0.7595351715900243</v>
       </c>
       <c r="J6">
-        <v>0.2583047360834035</v>
+        <v>0.8257207729145039</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>70.2356578691205</v>
+        <v>2.1006075</v>
       </c>
       <c r="N6">
-        <v>70.2356578691205</v>
+        <v>4.201215</v>
       </c>
       <c r="O6">
-        <v>0.5972432053378556</v>
+        <v>0.01757118085238527</v>
       </c>
       <c r="P6">
-        <v>0.5972432053378556</v>
+        <v>0.01467379942845245</v>
       </c>
       <c r="Q6">
-        <v>22.40724693211304</v>
+        <v>2.158098326465</v>
       </c>
       <c r="R6">
-        <v>22.40724693211304</v>
+        <v>12.94858995879</v>
       </c>
       <c r="S6">
-        <v>0.1542707485324008</v>
+        <v>0.01334592986375579</v>
       </c>
       <c r="T6">
-        <v>0.1542707485324008</v>
+        <v>0.01211646100565416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.319029501707914</v>
+        <v>0.3252595</v>
       </c>
       <c r="H7">
-        <v>0.319029501707914</v>
+        <v>0.6505190000000001</v>
       </c>
       <c r="I7">
-        <v>0.2583047360834035</v>
+        <v>0.2404648284099757</v>
       </c>
       <c r="J7">
-        <v>0.2583047360834035</v>
+        <v>0.1742792270854962</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.61267534780753</v>
+        <v>70.2375145</v>
       </c>
       <c r="N7">
-        <v>2.61267534780753</v>
+        <v>140.475029</v>
       </c>
       <c r="O7">
-        <v>0.0222166723651891</v>
+        <v>0.5875234044920492</v>
       </c>
       <c r="P7">
-        <v>0.0222166723651891</v>
+        <v>0.4906443493732269</v>
       </c>
       <c r="Q7">
-        <v>0.8335205143355873</v>
+        <v>22.84541884751275</v>
       </c>
       <c r="R7">
-        <v>0.8335205143355873</v>
+        <v>91.38167539005102</v>
       </c>
       <c r="S7">
-        <v>0.005738671691941617</v>
+        <v>0.1412787146480254</v>
       </c>
       <c r="T7">
-        <v>0.005738671691941617</v>
+        <v>0.08550911798263214</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.319029501707914</v>
+        <v>0.3252595</v>
       </c>
       <c r="H8">
-        <v>0.319029501707914</v>
+        <v>0.6505190000000001</v>
       </c>
       <c r="I8">
-        <v>0.2583047360834035</v>
+        <v>0.2404648284099757</v>
       </c>
       <c r="J8">
-        <v>0.2583047360834035</v>
+        <v>0.1742792270854962</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.2917111739136</v>
+        <v>2.804800666666666</v>
       </c>
       <c r="N8">
-        <v>43.2917111739136</v>
+        <v>8.414401999999999</v>
       </c>
       <c r="O8">
-        <v>0.3681275456157778</v>
+        <v>0.02346162230159168</v>
       </c>
       <c r="P8">
-        <v>0.3681275456157778</v>
+        <v>0.02938941407625393</v>
       </c>
       <c r="Q8">
-        <v>13.81133304389659</v>
+        <v>0.9122880624396668</v>
       </c>
       <c r="R8">
-        <v>13.81133304389659</v>
+        <v>5.473728374638</v>
       </c>
       <c r="S8">
-        <v>0.09508908851531457</v>
+        <v>0.005641694980971904</v>
       </c>
       <c r="T8">
-        <v>0.09508908851531457</v>
+        <v>0.005121964369705136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,55 +965,179 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3252595</v>
+      </c>
+      <c r="H9">
+        <v>0.6505190000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.2404648284099757</v>
+      </c>
+      <c r="J9">
+        <v>0.1742792270854962</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1062743333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.318823</v>
+      </c>
+      <c r="O9">
+        <v>0.0008889645166775211</v>
+      </c>
+      <c r="P9">
+        <v>0.001113569468636453</v>
+      </c>
+      <c r="Q9">
+        <v>0.03456673652283334</v>
+      </c>
+      <c r="R9">
+        <v>0.207400419137</v>
+      </c>
+      <c r="S9">
+        <v>0.0002137646999654171</v>
+      </c>
+      <c r="T9">
+        <v>0.0001940720262999677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.319029501707914</v>
-      </c>
-      <c r="H9">
-        <v>0.319029501707914</v>
-      </c>
-      <c r="I9">
-        <v>0.2583047360834035</v>
-      </c>
-      <c r="J9">
-        <v>0.2583047360834035</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.45971604408666</v>
-      </c>
-      <c r="N9">
-        <v>1.45971604408666</v>
-      </c>
-      <c r="O9">
-        <v>0.01241257668117757</v>
-      </c>
-      <c r="P9">
-        <v>0.01241257668117757</v>
-      </c>
-      <c r="Q9">
-        <v>0.4656924821800145</v>
-      </c>
-      <c r="R9">
-        <v>0.4656924821800145</v>
-      </c>
-      <c r="S9">
-        <v>0.003206227343746582</v>
-      </c>
-      <c r="T9">
-        <v>0.003206227343746582</v>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3252595</v>
+      </c>
+      <c r="H10">
+        <v>0.6505190000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.2404648284099757</v>
+      </c>
+      <c r="J10">
+        <v>0.1742792270854962</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>44.29925666666667</v>
+      </c>
+      <c r="N10">
+        <v>132.89777</v>
+      </c>
+      <c r="O10">
+        <v>0.3705548278372964</v>
+      </c>
+      <c r="P10">
+        <v>0.4641788676534301</v>
+      </c>
+      <c r="Q10">
+        <v>14.40875407377167</v>
+      </c>
+      <c r="R10">
+        <v>86.45252444263001</v>
+      </c>
+      <c r="S10">
+        <v>0.08910540309238357</v>
+      </c>
+      <c r="T10">
+        <v>0.08089673428406062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3252595</v>
+      </c>
+      <c r="H11">
+        <v>0.6505190000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2404648284099757</v>
+      </c>
+      <c r="J11">
+        <v>0.1742792270854962</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.1006075</v>
+      </c>
+      <c r="N11">
+        <v>4.201215</v>
+      </c>
+      <c r="O11">
+        <v>0.01757118085238527</v>
+      </c>
+      <c r="P11">
+        <v>0.01467379942845245</v>
+      </c>
+      <c r="Q11">
+        <v>0.6832425451462502</v>
+      </c>
+      <c r="R11">
+        <v>2.732970180585001</v>
+      </c>
+      <c r="S11">
+        <v>0.004225250988629473</v>
+      </c>
+      <c r="T11">
+        <v>0.002557338422798289</v>
       </c>
     </row>
   </sheetData>
